--- a/DATA/collate_cultivar_data_50_percent/probe_screening/xy_scatter_dfs.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/probe_screening/xy_scatter_dfs.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1253644</v>
+        <v>0.1399417</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.1399417</v>
+        <v>0.1253644</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.1146497</v>
+        <v>0.111465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.111465</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.0790698</v>
+        <v>0.1273585</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.1209302</v>
+        <v>0.0790698</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.1273585</v>
+        <v>0.1209302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0.0541516</v>
+        <v>0.1407942</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.1407942</v>
+        <v>0.0541516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1029186</v>
+        <v>0.0552326</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -607,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1046512</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <v>0.0552326</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>0.0988024</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0.1127451</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -761,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>0.1107784</v>
+        <v>0.0988024</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="C35">
-        <v>0.1428571</v>
+        <v>0.1190476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -783,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="C36">
-        <v>0.1190476</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="C44">
-        <v>0.1420455</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -882,7 +882,7 @@
         <v>32</v>
       </c>
       <c r="C45">
-        <v>0.08522730000000001</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -915,7 +915,7 @@
         <v>34</v>
       </c>
       <c r="C48">
-        <v>0.1384615</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -926,7 +926,7 @@
         <v>34</v>
       </c>
       <c r="C49">
-        <v>0.124031</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -948,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="C51">
-        <v>0.1243523</v>
+        <v>0.1088083</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -959,7 +959,7 @@
         <v>35</v>
       </c>
       <c r="C52">
-        <v>0.1088083</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>0.107438</v>
+        <v>0.0619835</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -992,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>0.1487603</v>
+        <v>0.107438</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>37</v>
       </c>
       <c r="C56">
-        <v>0.0619835</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1025,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="C58">
-        <v>0.09157510000000001</v>
+        <v>0.0695971</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>38</v>
       </c>
       <c r="C60">
-        <v>0.0695971</v>
+        <v>0.09157510000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1135,7 +1135,7 @@
         <v>45</v>
       </c>
       <c r="C68">
-        <v>0.0674157</v>
+        <v>0.1741573</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1146,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="C69">
-        <v>0.1741573</v>
+        <v>0.0674157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1157,7 +1157,7 @@
         <v>49</v>
       </c>
       <c r="C70">
-        <v>0.1318052</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1168,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="C71">
-        <v>0.145749</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1190,7 +1190,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.0808625</v>
+        <v>0.1698113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1201,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="C74">
-        <v>0.1698113</v>
+        <v>0.0808625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>54</v>
       </c>
       <c r="C78">
-        <v>0.1628788</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>54</v>
       </c>
       <c r="C79">
-        <v>0.095679</v>
+        <v>0.0606061</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>54</v>
       </c>
       <c r="C80">
-        <v>0.0606061</v>
+        <v>0.1628788</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>54</v>
       </c>
       <c r="C81">
-        <v>0.1022727</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>62</v>
       </c>
       <c r="C85">
-        <v>0.1232493</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>62</v>
       </c>
       <c r="C86">
-        <v>0.1176471</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>62</v>
       </c>
       <c r="C87">
-        <v>0.1192308</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>70</v>
       </c>
       <c r="C94">
-        <v>0.1233596</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>70</v>
       </c>
       <c r="C95">
-        <v>0.1138015</v>
+        <v>0.0524934</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>70</v>
       </c>
       <c r="C97">
-        <v>0.0524934</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>72</v>
       </c>
       <c r="C100">
-        <v>0.0751445</v>
+        <v>0.1404959</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>72</v>
       </c>
       <c r="C101">
-        <v>0.0826446</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>72</v>
       </c>
       <c r="C102">
-        <v>0.1404959</v>
+        <v>0.1416185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>72</v>
       </c>
       <c r="C103">
-        <v>0.1416185</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.1428571</v>
+        <v>0.1435897</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>75</v>
       </c>
       <c r="C109">
-        <v>0.09230770000000001</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.1435897</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>75</v>
       </c>
       <c r="C112">
-        <v>0.1418919</v>
+        <v>0.0506757</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>75</v>
       </c>
       <c r="C113">
-        <v>0.0506757</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="C116">
-        <v>0.0898876</v>
+        <v>0.059761</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>76</v>
       </c>
       <c r="C117">
-        <v>0.059761</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>76</v>
       </c>
       <c r="C118">
-        <v>0.1356784</v>
+        <v>0.0898876</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>77</v>
       </c>
       <c r="C119">
-        <v>0.0932945</v>
+        <v>0.1049563</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="C120">
-        <v>0.1049563</v>
+        <v>0.0612245</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>77</v>
       </c>
       <c r="C121">
-        <v>0.0612245</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>77</v>
       </c>
       <c r="C122">
-        <v>0.1119792</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>78</v>
       </c>
       <c r="C123">
-        <v>0.09843399999999999</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>78</v>
       </c>
       <c r="C124">
-        <v>0.114094</v>
+        <v>0.1072261</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="C125">
-        <v>0.1072261</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="C126">
-        <v>0.1389474</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>79</v>
       </c>
       <c r="C127">
-        <v>0.1305263</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>83</v>
       </c>
       <c r="C133">
-        <v>0.1466667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>83</v>
       </c>
       <c r="C135">
-        <v>0.125</v>
+        <v>0.1466667</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="C139">
-        <v>0.0841837</v>
+        <v>0.1352041</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>85</v>
       </c>
       <c r="C140">
-        <v>0.1041667</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>85</v>
       </c>
       <c r="C142">
-        <v>0.1352041</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>89</v>
       </c>
       <c r="C147">
-        <v>0.0590717</v>
+        <v>0.1329114</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>89</v>
       </c>
       <c r="C148">
-        <v>0.07383969999999999</v>
+        <v>0.07805910000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>89</v>
       </c>
       <c r="C149">
-        <v>0.1329114</v>
+        <v>0.0590717</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>89</v>
       </c>
       <c r="C150">
-        <v>0.07805910000000001</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>89</v>
       </c>
       <c r="C151">
-        <v>0.0888383</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>90</v>
       </c>
       <c r="C152">
-        <v>0.1066282</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>90</v>
       </c>
       <c r="C153">
-        <v>0.0835735</v>
+        <v>0.1066282</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>90</v>
       </c>
       <c r="C154">
-        <v>0.1384615</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>90</v>
       </c>
       <c r="C155">
-        <v>0.08461539999999999</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>91</v>
       </c>
       <c r="C157">
-        <v>0.09090910000000001</v>
+        <v>0.1431767</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>91</v>
       </c>
       <c r="C159">
-        <v>0.1431767</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>92</v>
       </c>
       <c r="C162">
-        <v>0.1840278</v>
+        <v>0.08860759999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>92</v>
       </c>
       <c r="C164">
-        <v>0.08860759999999999</v>
+        <v>0.1840278</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>93</v>
       </c>
       <c r="C165">
-        <v>0.1332149</v>
+        <v>0.0979782</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>93</v>
       </c>
       <c r="C166">
-        <v>0.1278863</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>93</v>
       </c>
       <c r="C167">
-        <v>0.0979782</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>93</v>
       </c>
       <c r="C168">
-        <v>0.0822368</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>93</v>
       </c>
       <c r="C169">
-        <v>0.0917574</v>
+        <v>0.0822368</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>94</v>
       </c>
       <c r="C170">
-        <v>0.2232824</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>94</v>
       </c>
       <c r="C171">
-        <v>0.0763359</v>
+        <v>0.2232824</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>97</v>
       </c>
       <c r="C177">
-        <v>0.1236364</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>97</v>
       </c>
       <c r="C178">
-        <v>0.1254545</v>
+        <v>0.1236364</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>101</v>
       </c>
       <c r="C183">
-        <v>0.1855422</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>101</v>
       </c>
       <c r="C185">
-        <v>0.1966019</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>101</v>
       </c>
       <c r="C186">
-        <v>0.2135922</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>103</v>
       </c>
       <c r="C191">
-        <v>0.1954545</v>
+        <v>0.0886364</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>103</v>
       </c>
       <c r="C192">
-        <v>0.0886364</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>103</v>
       </c>
       <c r="C193">
-        <v>0.1637168</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>103</v>
       </c>
       <c r="C194">
-        <v>0.1840909</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>103</v>
       </c>
       <c r="C195">
-        <v>0.1438053</v>
+        <v>0.1954545</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>104</v>
       </c>
       <c r="C196">
-        <v>0.1268382</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>104</v>
       </c>
       <c r="C198">
-        <v>0.2177122</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>104</v>
       </c>
       <c r="C200">
-        <v>0.1943888</v>
+        <v>0.2177122</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>104</v>
       </c>
       <c r="C201">
-        <v>0.1709559</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>118</v>
       </c>
       <c r="C205">
-        <v>0.1031308</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>118</v>
       </c>
       <c r="C207">
-        <v>0.213628</v>
+        <v>0.1031308</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>120</v>
       </c>
       <c r="C210">
-        <v>0.1193353</v>
+        <v>0.1767372</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>120</v>
       </c>
       <c r="C211">
-        <v>0.1767372</v>
+        <v>0.1193353</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>121</v>
       </c>
       <c r="C212">
-        <v>0.1136045</v>
+        <v>0.1458626</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>121</v>
       </c>
       <c r="C213">
-        <v>0.1458626</v>
+        <v>0.1136045</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>146</v>
       </c>
       <c r="C228">
-        <v>0.4010417</v>
+        <v>0.3663194</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>146</v>
       </c>
       <c r="C229">
-        <v>0.3663194</v>
+        <v>0.4010417</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>156</v>
       </c>
       <c r="C240">
-        <v>0.4278075</v>
+        <v>0.5288462</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>156</v>
       </c>
       <c r="C242">
-        <v>0.5288462</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>187</v>
       </c>
       <c r="C267">
-        <v>0.5576923</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>187</v>
       </c>
       <c r="C268">
-        <v>0.4344392</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>189</v>
       </c>
       <c r="C269">
-        <v>0.2743506</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>189</v>
       </c>
       <c r="C270">
-        <v>0.4017857</v>
+        <v>0.400974</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>189</v>
       </c>
       <c r="C271">
-        <v>0.400974</v>
+        <v>0.2743506</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>189</v>
       </c>
       <c r="C272">
-        <v>0.5909091</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>190</v>
       </c>
       <c r="C273">
-        <v>0.6779412</v>
+        <v>0.2897059</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>190</v>
       </c>
       <c r="C274">
-        <v>0.2897059</v>
+        <v>0.6779412</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>194</v>
       </c>
       <c r="C276">
-        <v>0.4267442</v>
+        <v>0.3188623</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>194</v>
       </c>
       <c r="C277">
-        <v>0.3188623</v>
+        <v>0.4267442</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>197</v>
       </c>
       <c r="C279">
-        <v>0.3317972</v>
+        <v>0.6212361</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>197</v>
       </c>
       <c r="C280">
-        <v>0.6212361</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>198</v>
       </c>
       <c r="C281">
-        <v>0.6269231</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>198</v>
       </c>
       <c r="C282">
-        <v>0.6528777</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>199</v>
       </c>
       <c r="C285">
-        <v>0.5191041</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>199</v>
       </c>
       <c r="C286">
-        <v>0.5072464</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>203</v>
       </c>
       <c r="C289">
-        <v>0.5944584000000001</v>
+        <v>0.5660036000000001</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>203</v>
       </c>
       <c r="C290">
-        <v>0.7443609</v>
+        <v>0.5944584000000001</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>203</v>
       </c>
       <c r="C291">
-        <v>0.5660036000000001</v>
+        <v>0.7443609</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>210</v>
       </c>
       <c r="C301">
-        <v>0.3636364</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>210</v>
       </c>
       <c r="C302">
-        <v>0.5355932</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>211</v>
       </c>
       <c r="C304">
-        <v>0.5507246</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>211</v>
       </c>
       <c r="C305">
-        <v>0.3010753</v>
+        <v>0.4456522</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>211</v>
       </c>
       <c r="C306">
-        <v>0.3379416</v>
+        <v>0.3010753</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>211</v>
       </c>
       <c r="C307">
-        <v>0.4456522</v>
+        <v>0.5507246</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>214</v>
       </c>
       <c r="C311">
-        <v>0.423913</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>214</v>
       </c>
       <c r="C312">
-        <v>0.3900344</v>
+        <v>0.423913</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>215</v>
       </c>
       <c r="C313">
-        <v>0.2920792</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>215</v>
       </c>
       <c r="C314">
-        <v>0.3333333</v>
+        <v>0.2920792</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>216</v>
       </c>
       <c r="C315">
-        <v>0.3191176</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>216</v>
       </c>
       <c r="C316">
-        <v>0.3642241</v>
+        <v>0.3191176</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>217</v>
       </c>
       <c r="C317">
-        <v>0.5736926</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>217</v>
       </c>
       <c r="C318">
-        <v>0.3359746</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>221</v>
       </c>
       <c r="C325">
-        <v>0.6666666999999999</v>
+        <v>0.3982169</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>221</v>
       </c>
       <c r="C326">
-        <v>0.3982169</v>
+        <v>0.3469055</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>221</v>
       </c>
       <c r="C327">
-        <v>0.3469055</v>
+        <v>0.4769688</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>221</v>
       </c>
       <c r="C328">
-        <v>0.4769688</v>
+        <v>0.6666666999999999</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>228</v>
       </c>
       <c r="C334">
-        <v>0.6065891</v>
+        <v>0.2583732</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>228</v>
       </c>
       <c r="C335">
-        <v>0.2583732</v>
+        <v>0.6065891</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>229</v>
       </c>
       <c r="C336">
-        <v>0.6424051</v>
+        <v>0.3402923</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>229</v>
       </c>
       <c r="C337">
-        <v>0.3402923</v>
+        <v>0.6424051</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>230</v>
       </c>
       <c r="C338">
-        <v>0.4797794</v>
+        <v>0.3713235</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>230</v>
       </c>
       <c r="C339">
-        <v>0.3713235</v>
+        <v>0.4797794</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>231</v>
       </c>
       <c r="C340">
-        <v>0.4540902</v>
+        <v>0.2956204</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>231</v>
       </c>
       <c r="C341">
-        <v>0.2704508</v>
+        <v>0.4540902</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>231</v>
       </c>
       <c r="C342">
-        <v>0.2956204</v>
+        <v>0.2704508</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>232</v>
       </c>
       <c r="C343">
-        <v>0.3292929</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>232</v>
       </c>
       <c r="C344">
-        <v>0.3625</v>
+        <v>0.3292929</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>242</v>
       </c>
       <c r="C360">
-        <v>0.4646782</v>
+        <v>0.43898</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>242</v>
       </c>
       <c r="C361">
-        <v>0.43898</v>
+        <v>0.4646782</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>247</v>
       </c>
       <c r="C366">
-        <v>0.5961071</v>
+        <v>0.3944954</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4435,7 +4435,7 @@
         <v>247</v>
       </c>
       <c r="C368">
-        <v>0.3944954</v>
+        <v>0.5961071</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4490,7 +4490,7 @@
         <v>254</v>
       </c>
       <c r="C373">
-        <v>0.6770073</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4501,7 +4501,7 @@
         <v>254</v>
       </c>
       <c r="C374">
-        <v>0.5</v>
+        <v>0.6770073</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4512,7 +4512,7 @@
         <v>255</v>
       </c>
       <c r="C375">
-        <v>0.4123711</v>
+        <v>0.5953608</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4523,7 +4523,7 @@
         <v>255</v>
       </c>
       <c r="C376">
-        <v>0.3228621</v>
+        <v>0.2525773</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>255</v>
       </c>
       <c r="C378">
-        <v>0.5953608</v>
+        <v>0.3228621</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4556,7 +4556,7 @@
         <v>255</v>
       </c>
       <c r="C379">
-        <v>0.5270506</v>
+        <v>0.4123711</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4567,7 +4567,7 @@
         <v>255</v>
       </c>
       <c r="C380">
-        <v>0.2525773</v>
+        <v>0.5270506</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>256</v>
       </c>
       <c r="C381">
-        <v>0.264881</v>
+        <v>0.327381</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4589,7 +4589,7 @@
         <v>256</v>
       </c>
       <c r="C382">
-        <v>0.327381</v>
+        <v>0.5809935000000001</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4600,7 +4600,7 @@
         <v>256</v>
       </c>
       <c r="C383">
-        <v>0.5809935000000001</v>
+        <v>0.264881</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4644,7 +4644,7 @@
         <v>259</v>
       </c>
       <c r="C387">
-        <v>0.3449692</v>
+        <v>0.592668</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>259</v>
       </c>
       <c r="C388">
-        <v>0.592668</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4666,7 +4666,7 @@
         <v>259</v>
       </c>
       <c r="C389">
-        <v>0.4233871</v>
+        <v>0.5494505</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4677,7 +4677,7 @@
         <v>259</v>
       </c>
       <c r="C390">
-        <v>0.5494505</v>
+        <v>0.3449692</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>260</v>
       </c>
       <c r="C391">
-        <v>0.5670103</v>
+        <v>0.2927835</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4699,7 +4699,7 @@
         <v>260</v>
       </c>
       <c r="C392">
-        <v>0.2927835</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4710,7 +4710,7 @@
         <v>260</v>
       </c>
       <c r="C393">
-        <v>0.4324324</v>
+        <v>0.5670103</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4721,7 +4721,7 @@
         <v>261</v>
       </c>
       <c r="C394">
-        <v>0.2719101</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4732,7 +4732,7 @@
         <v>261</v>
       </c>
       <c r="C395">
-        <v>0.3315927</v>
+        <v>0.2719101</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4787,7 +4787,7 @@
         <v>266</v>
       </c>
       <c r="C400">
-        <v>0.3318486</v>
+        <v>0.2694878</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4809,7 +4809,7 @@
         <v>266</v>
       </c>
       <c r="C402">
-        <v>0.4403292</v>
+        <v>0.2880658</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4820,7 +4820,7 @@
         <v>266</v>
       </c>
       <c r="C403">
-        <v>0.2880658</v>
+        <v>0.4403292</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4831,7 +4831,7 @@
         <v>266</v>
       </c>
       <c r="C404">
-        <v>0.2694878</v>
+        <v>0.3318486</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="C405">
-        <v>0.2696391</v>
+        <v>0.3086053</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4853,7 +4853,7 @@
         <v>267</v>
       </c>
       <c r="C406">
-        <v>0.3086053</v>
+        <v>0.2696391</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4886,7 +4886,7 @@
         <v>271</v>
       </c>
       <c r="C409">
-        <v>0.2966752</v>
+        <v>0.6512605</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>271</v>
       </c>
       <c r="C410">
-        <v>0.6512605</v>
+        <v>0.2478992</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>271</v>
       </c>
       <c r="C411">
-        <v>0.2478992</v>
+        <v>0.2966752</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4963,7 +4963,7 @@
         <v>275</v>
       </c>
       <c r="C416">
-        <v>0.3431085</v>
+        <v>0.4662757</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>275</v>
       </c>
       <c r="C417">
-        <v>0.4662757</v>
+        <v>0.3431085</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5018,7 +5018,7 @@
         <v>280</v>
       </c>
       <c r="C421">
-        <v>0.5927602</v>
+        <v>0.5641026</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5029,7 +5029,7 @@
         <v>280</v>
       </c>
       <c r="C422">
-        <v>0.5641026</v>
+        <v>0.5927602</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5051,7 +5051,7 @@
         <v>281</v>
       </c>
       <c r="C424">
-        <v>0.2566735</v>
+        <v>0.2231076</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5062,7 +5062,7 @@
         <v>281</v>
       </c>
       <c r="C425">
-        <v>0.2231076</v>
+        <v>0.2566735</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5095,7 +5095,7 @@
         <v>284</v>
       </c>
       <c r="C428">
-        <v>0.2928571</v>
+        <v>0.264624</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5106,7 +5106,7 @@
         <v>284</v>
       </c>
       <c r="C429">
-        <v>0.264624</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5117,7 +5117,7 @@
         <v>284</v>
       </c>
       <c r="C430">
-        <v>0.2924791</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5194,7 +5194,7 @@
         <v>289</v>
       </c>
       <c r="C437">
-        <v>0.4387528</v>
+        <v>0.5033408</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5205,7 +5205,7 @@
         <v>289</v>
       </c>
       <c r="C438">
-        <v>0.5033408</v>
+        <v>0.4387528</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5238,7 +5238,7 @@
         <v>293</v>
       </c>
       <c r="C441">
-        <v>0.3888889</v>
+        <v>0.5496368</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5249,7 +5249,7 @@
         <v>293</v>
       </c>
       <c r="C442">
-        <v>0.5496368</v>
+        <v>0.3888889</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5271,7 +5271,7 @@
         <v>296</v>
       </c>
       <c r="C444">
-        <v>0.2135076</v>
+        <v>0.540305</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5282,7 +5282,7 @@
         <v>296</v>
       </c>
       <c r="C445">
-        <v>0.414966</v>
+        <v>0.2135076</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5304,7 +5304,7 @@
         <v>296</v>
       </c>
       <c r="C447">
-        <v>0.540305</v>
+        <v>0.414966</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5315,7 +5315,7 @@
         <v>298</v>
       </c>
       <c r="C448">
-        <v>0.3725</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5326,7 +5326,7 @@
         <v>298</v>
       </c>
       <c r="C449">
-        <v>0.35</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C451">
-        <v>0.4466019</v>
+        <v>0.5684932</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C452">
-        <v>0.2291169</v>
+        <v>0.2412587</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C453">
-        <v>0.5684932</v>
+        <v>0.1147059</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C454">
-        <v>0.2412587</v>
+        <v>0.2823529</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C456">
-        <v>0.2823529</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C457">
-        <v>0.1147059</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C458">
-        <v>0.2011494</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C459">
-        <v>0.1826625</v>
+        <v>0.1168478</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C460">
-        <v>0.1168478</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C461">
-        <v>0.1657609</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C462">
-        <v>0.2068966</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C463">
-        <v>0.2135417</v>
+        <v>0.1375661</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C464">
-        <v>0.1375661</v>
+        <v>0.2436548</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C465">
-        <v>0.2086168</v>
+        <v>0.1015228</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5513,7 +5513,7 @@
         <v>317</v>
       </c>
       <c r="C466">
-        <v>0.2436548</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C467">
-        <v>0.1015228</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C468">
-        <v>0.1458333</v>
+        <v>0.2754491</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C469">
-        <v>0.1153846</v>
+        <v>0.2558824</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C470">
-        <v>0.2754491</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C471">
-        <v>0.2558824</v>
+        <v>0.2008547</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C472">
-        <v>0.2258065</v>
+        <v>0.2469636</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C473">
-        <v>0.2008547</v>
+        <v>0.1504065</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C474">
-        <v>0.2469636</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C475">
-        <v>0.1504065</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C476">
-        <v>0.25</v>
+        <v>0.0662021</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C477">
-        <v>0.125</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C478">
-        <v>0.0662021</v>
+        <v>0.1434109</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,31 +5653,9 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C479">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1">
-        <v>478</v>
-      </c>
-      <c r="B480">
-        <v>348</v>
-      </c>
-      <c r="C480">
-        <v>0.1434109</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="A481" s="1">
-        <v>479</v>
-      </c>
-      <c r="B481">
-        <v>348</v>
-      </c>
-      <c r="C481">
         <v>0.1046512</v>
       </c>
     </row>
@@ -5688,7 +5666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C427"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5922,7 +5900,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.0676157</v>
+        <v>0.1209964</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5933,7 +5911,7 @@
         <v>19</v>
       </c>
       <c r="C22">
-        <v>0.1209964</v>
+        <v>0.0676157</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5944,7 +5922,7 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>0.0693069</v>
+        <v>0.0990099</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5955,7 +5933,7 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>0.0990099</v>
+        <v>0.0693069</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5988,7 +5966,7 @@
         <v>22</v>
       </c>
       <c r="C27">
-        <v>0.0695187</v>
+        <v>0.1149733</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5999,7 +5977,7 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>0.1149733</v>
+        <v>0.0695187</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6010,7 +5988,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>0.1127451</v>
+        <v>0.0637255</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6032,7 +6010,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>0.0988024</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6043,7 +6021,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0.0637255</v>
+        <v>0.0988024</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6131,7 +6109,7 @@
         <v>30</v>
       </c>
       <c r="C40">
-        <v>0.1187905</v>
+        <v>0.0518359</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6142,7 +6120,7 @@
         <v>30</v>
       </c>
       <c r="C41">
-        <v>0.0518359</v>
+        <v>0.1187905</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6175,7 +6153,7 @@
         <v>33</v>
       </c>
       <c r="C44">
-        <v>0.1437908</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6186,7 +6164,7 @@
         <v>33</v>
       </c>
       <c r="C45">
-        <v>0.09230770000000001</v>
+        <v>0.1437908</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6208,7 +6186,7 @@
         <v>34</v>
       </c>
       <c r="C47">
-        <v>0.1384615</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6219,7 +6197,7 @@
         <v>34</v>
       </c>
       <c r="C48">
-        <v>0.124031</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6274,7 +6252,7 @@
         <v>37</v>
       </c>
       <c r="C53">
-        <v>0.107438</v>
+        <v>0.1157025</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6285,7 +6263,7 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>0.1157025</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6296,7 +6274,7 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>0.1487603</v>
+        <v>0.107438</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6351,7 +6329,7 @@
         <v>40</v>
       </c>
       <c r="C60">
-        <v>0.1573034</v>
+        <v>0.1348315</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6362,7 +6340,7 @@
         <v>40</v>
       </c>
       <c r="C61">
-        <v>0.1348315</v>
+        <v>0.1573034</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6395,7 +6373,7 @@
         <v>44</v>
       </c>
       <c r="C64">
-        <v>0.1259259</v>
+        <v>0.0814815</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6406,7 +6384,7 @@
         <v>44</v>
       </c>
       <c r="C65">
-        <v>0.0814815</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6439,7 +6417,7 @@
         <v>49</v>
       </c>
       <c r="C68">
-        <v>0.145749</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6450,7 +6428,7 @@
         <v>49</v>
       </c>
       <c r="C69">
-        <v>0.1318052</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6472,7 +6450,7 @@
         <v>50</v>
       </c>
       <c r="C71">
-        <v>0.0808625</v>
+        <v>0.1698113</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6483,7 +6461,7 @@
         <v>50</v>
       </c>
       <c r="C72">
-        <v>0.1698113</v>
+        <v>0.0808625</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6505,7 +6483,7 @@
         <v>53</v>
       </c>
       <c r="C74">
-        <v>0.1280488</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6516,7 +6494,7 @@
         <v>53</v>
       </c>
       <c r="C75">
-        <v>0.1158537</v>
+        <v>0.1280488</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6527,7 +6505,7 @@
         <v>54</v>
       </c>
       <c r="C76">
-        <v>0.0606061</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6538,7 +6516,7 @@
         <v>54</v>
       </c>
       <c r="C77">
-        <v>0.095679</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6549,7 +6527,7 @@
         <v>54</v>
       </c>
       <c r="C78">
-        <v>0.1022727</v>
+        <v>0.0606061</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6593,7 +6571,7 @@
         <v>62</v>
       </c>
       <c r="C82">
-        <v>0.1232493</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -6604,7 +6582,7 @@
         <v>62</v>
       </c>
       <c r="C83">
-        <v>0.1192308</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -6626,7 +6604,7 @@
         <v>63</v>
       </c>
       <c r="C85">
-        <v>0.0943396</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -6637,7 +6615,7 @@
         <v>63</v>
       </c>
       <c r="C86">
-        <v>0.0825472</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -6692,7 +6670,7 @@
         <v>70</v>
       </c>
       <c r="C91">
-        <v>0.1138015</v>
+        <v>0.0524934</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6703,7 +6681,7 @@
         <v>70</v>
       </c>
       <c r="C92">
-        <v>0.1233596</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6714,7 +6692,7 @@
         <v>70</v>
       </c>
       <c r="C93">
-        <v>0.1138015</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6725,7 +6703,7 @@
         <v>70</v>
       </c>
       <c r="C94">
-        <v>0.0524934</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6736,7 +6714,7 @@
         <v>71</v>
       </c>
       <c r="C95">
-        <v>0.0507614</v>
+        <v>0.1021021</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6747,7 +6725,7 @@
         <v>71</v>
       </c>
       <c r="C96">
-        <v>0.1021021</v>
+        <v>0.0507614</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6769,7 +6747,7 @@
         <v>72</v>
       </c>
       <c r="C98">
-        <v>0.1416185</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6791,7 +6769,7 @@
         <v>72</v>
       </c>
       <c r="C100">
-        <v>0.0751445</v>
+        <v>0.1416185</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6857,7 +6835,7 @@
         <v>75</v>
       </c>
       <c r="C106">
-        <v>0.1428571</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6868,7 +6846,7 @@
         <v>75</v>
       </c>
       <c r="C107">
-        <v>0.125</v>
+        <v>0.0506757</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6890,7 +6868,7 @@
         <v>75</v>
       </c>
       <c r="C109">
-        <v>0.0506757</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6901,7 +6879,7 @@
         <v>75</v>
       </c>
       <c r="C110">
-        <v>0.1418919</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6912,7 +6890,7 @@
         <v>76</v>
       </c>
       <c r="C111">
-        <v>0.0898876</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6923,7 +6901,7 @@
         <v>76</v>
       </c>
       <c r="C112">
-        <v>0.059761</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6934,7 +6912,7 @@
         <v>76</v>
       </c>
       <c r="C113">
-        <v>0.0786517</v>
+        <v>0.0898876</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6945,7 +6923,7 @@
         <v>76</v>
       </c>
       <c r="C114">
-        <v>0.1155378</v>
+        <v>0.059761</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6956,7 +6934,7 @@
         <v>76</v>
       </c>
       <c r="C115">
-        <v>0.1356784</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6967,7 +6945,7 @@
         <v>77</v>
       </c>
       <c r="C116">
-        <v>0.0932945</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6989,7 +6967,7 @@
         <v>77</v>
       </c>
       <c r="C118">
-        <v>0.1119792</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -7011,7 +6989,7 @@
         <v>78</v>
       </c>
       <c r="C120">
-        <v>0.09843399999999999</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7022,7 +7000,7 @@
         <v>78</v>
       </c>
       <c r="C121">
-        <v>0.114094</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7044,7 +7022,7 @@
         <v>79</v>
       </c>
       <c r="C123">
-        <v>0.1389474</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7055,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="C124">
-        <v>0.1305263</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7077,7 +7055,7 @@
         <v>81</v>
       </c>
       <c r="C126">
-        <v>0.1011673</v>
+        <v>0.0522523</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7088,7 +7066,7 @@
         <v>81</v>
       </c>
       <c r="C127">
-        <v>0.0522523</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7143,7 +7121,7 @@
         <v>84</v>
       </c>
       <c r="C132">
-        <v>0.08883249999999999</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7154,7 +7132,7 @@
         <v>84</v>
       </c>
       <c r="C133">
-        <v>0.08119659999999999</v>
+        <v>0.08883249999999999</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7165,7 +7143,7 @@
         <v>84</v>
       </c>
       <c r="C134">
-        <v>0.0705128</v>
+        <v>0.08119659999999999</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7176,7 +7154,7 @@
         <v>85</v>
       </c>
       <c r="C135">
-        <v>0.0841837</v>
+        <v>0.0544218</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -7187,7 +7165,7 @@
         <v>85</v>
       </c>
       <c r="C136">
-        <v>0.0544218</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -7198,7 +7176,7 @@
         <v>85</v>
       </c>
       <c r="C137">
-        <v>0.1041667</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -7253,7 +7231,7 @@
         <v>89</v>
       </c>
       <c r="C142">
-        <v>0.0888383</v>
+        <v>0.1329114</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -7275,7 +7253,7 @@
         <v>89</v>
       </c>
       <c r="C144">
-        <v>0.07383969999999999</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -7286,7 +7264,7 @@
         <v>89</v>
       </c>
       <c r="C145">
-        <v>0.1329114</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -7297,7 +7275,7 @@
         <v>90</v>
       </c>
       <c r="C146">
-        <v>0.1384615</v>
+        <v>0.1066282</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -7308,7 +7286,7 @@
         <v>90</v>
       </c>
       <c r="C147">
-        <v>0.1066282</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -7319,7 +7297,7 @@
         <v>90</v>
       </c>
       <c r="C148">
-        <v>0.08461539999999999</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -7330,7 +7308,7 @@
         <v>90</v>
       </c>
       <c r="C149">
-        <v>0.0835735</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -7341,7 +7319,7 @@
         <v>91</v>
       </c>
       <c r="C150">
-        <v>0.09090910000000001</v>
+        <v>0.1431767</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -7352,7 +7330,7 @@
         <v>91</v>
       </c>
       <c r="C151">
-        <v>0.08053689999999999</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -7363,7 +7341,7 @@
         <v>91</v>
       </c>
       <c r="C152">
-        <v>0.064877</v>
+        <v>0.08053689999999999</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -7374,7 +7352,7 @@
         <v>91</v>
       </c>
       <c r="C153">
-        <v>0.1431767</v>
+        <v>0.064877</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -7440,7 +7418,7 @@
         <v>93</v>
       </c>
       <c r="C159">
-        <v>0.0979782</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -7451,7 +7429,7 @@
         <v>93</v>
       </c>
       <c r="C160">
-        <v>0.0822368</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -7462,7 +7440,7 @@
         <v>93</v>
       </c>
       <c r="C161">
-        <v>0.1332149</v>
+        <v>0.0979782</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -7473,7 +7451,7 @@
         <v>93</v>
       </c>
       <c r="C162">
-        <v>0.0917574</v>
+        <v>0.0822368</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -7484,7 +7462,7 @@
         <v>94</v>
       </c>
       <c r="C163">
-        <v>0.2232824</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -7495,7 +7473,7 @@
         <v>94</v>
       </c>
       <c r="C164">
-        <v>0.0763359</v>
+        <v>0.2232824</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -7506,7 +7484,7 @@
         <v>95</v>
       </c>
       <c r="C165">
-        <v>0.1945525</v>
+        <v>0.2140078</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -7517,7 +7495,7 @@
         <v>95</v>
       </c>
       <c r="C166">
-        <v>0.2140078</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -7528,7 +7506,7 @@
         <v>96</v>
       </c>
       <c r="C167">
-        <v>0.1679389</v>
+        <v>0.1122807</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -7539,7 +7517,7 @@
         <v>96</v>
       </c>
       <c r="C168">
-        <v>0.1259542</v>
+        <v>0.1679389</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -7550,7 +7528,7 @@
         <v>96</v>
       </c>
       <c r="C169">
-        <v>0.1122807</v>
+        <v>0.1259542</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -7583,7 +7561,7 @@
         <v>98</v>
       </c>
       <c r="C172">
-        <v>0.1403813</v>
+        <v>0.1941075</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -7594,7 +7572,7 @@
         <v>98</v>
       </c>
       <c r="C173">
-        <v>0.1941075</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -7627,7 +7605,7 @@
         <v>101</v>
       </c>
       <c r="C176">
-        <v>0.2135922</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -7638,7 +7616,7 @@
         <v>101</v>
       </c>
       <c r="C177">
-        <v>0.1855422</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -7682,7 +7660,7 @@
         <v>102</v>
       </c>
       <c r="C181">
-        <v>0.1828442</v>
+        <v>0.1267606</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -7693,7 +7671,7 @@
         <v>102</v>
       </c>
       <c r="C182">
-        <v>0.1267606</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -7704,7 +7682,7 @@
         <v>103</v>
       </c>
       <c r="C183">
-        <v>0.1637168</v>
+        <v>0.1954545</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -7715,7 +7693,7 @@
         <v>103</v>
       </c>
       <c r="C184">
-        <v>0.1438053</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -7726,7 +7704,7 @@
         <v>103</v>
       </c>
       <c r="C185">
-        <v>0.1840909</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -7737,7 +7715,7 @@
         <v>103</v>
       </c>
       <c r="C186">
-        <v>0.1954545</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -7748,7 +7726,7 @@
         <v>104</v>
       </c>
       <c r="C187">
-        <v>0.1709559</v>
+        <v>0.2177122</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -7759,7 +7737,7 @@
         <v>104</v>
       </c>
       <c r="C188">
-        <v>0.2073955</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -7770,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="C189">
-        <v>0.09003220000000001</v>
+        <v>0.2073955</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -7781,7 +7759,7 @@
         <v>104</v>
       </c>
       <c r="C190">
-        <v>0.1268382</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -7792,7 +7770,7 @@
         <v>104</v>
       </c>
       <c r="C191">
-        <v>0.1943888</v>
+        <v>0.09003220000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -7803,7 +7781,7 @@
         <v>104</v>
       </c>
       <c r="C192">
-        <v>0.2177122</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -7825,7 +7803,7 @@
         <v>117</v>
       </c>
       <c r="C194">
-        <v>0.2241993</v>
+        <v>0.2209738</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -7836,7 +7814,7 @@
         <v>117</v>
       </c>
       <c r="C195">
-        <v>0.2209738</v>
+        <v>0.2241993</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -7858,7 +7836,7 @@
         <v>118</v>
       </c>
       <c r="C197">
-        <v>0.1031308</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -7869,7 +7847,7 @@
         <v>118</v>
       </c>
       <c r="C198">
-        <v>0.213628</v>
+        <v>0.1031308</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -7880,7 +7858,7 @@
         <v>119</v>
       </c>
       <c r="C199">
-        <v>0.1872279</v>
+        <v>0.1393324</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -7891,7 +7869,7 @@
         <v>119</v>
       </c>
       <c r="C200">
-        <v>0.1393324</v>
+        <v>0.1872279</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -8111,7 +8089,7 @@
         <v>153</v>
       </c>
       <c r="C220">
-        <v>0.6732026</v>
+        <v>0.2972973</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -8122,7 +8100,7 @@
         <v>153</v>
       </c>
       <c r="C221">
-        <v>0.2972973</v>
+        <v>0.6732026</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -8144,7 +8122,7 @@
         <v>156</v>
       </c>
       <c r="C223">
-        <v>0.4278075</v>
+        <v>0.5288462</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -8166,7 +8144,7 @@
         <v>156</v>
       </c>
       <c r="C225">
-        <v>0.5288462</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -8342,7 +8320,7 @@
         <v>178</v>
       </c>
       <c r="C241">
-        <v>0.7197802</v>
+        <v>0.3736264</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -8353,7 +8331,7 @@
         <v>178</v>
       </c>
       <c r="C242">
-        <v>0.3736264</v>
+        <v>0.7197802</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -8375,7 +8353,7 @@
         <v>179</v>
       </c>
       <c r="C244">
-        <v>0.3533026</v>
+        <v>0.3839662</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -8386,7 +8364,7 @@
         <v>179</v>
       </c>
       <c r="C245">
-        <v>0.3839662</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -8430,7 +8408,7 @@
         <v>187</v>
       </c>
       <c r="C249">
-        <v>0.5102564000000001</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -8441,7 +8419,7 @@
         <v>187</v>
       </c>
       <c r="C250">
-        <v>0.4344392</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -8452,7 +8430,7 @@
         <v>187</v>
       </c>
       <c r="C251">
-        <v>0.5576923</v>
+        <v>0.5102564000000001</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -8474,7 +8452,7 @@
         <v>189</v>
       </c>
       <c r="C253">
-        <v>0.5909091</v>
+        <v>0.2743506</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -8496,7 +8474,7 @@
         <v>189</v>
       </c>
       <c r="C255">
-        <v>0.2743506</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -8562,7 +8540,7 @@
         <v>197</v>
       </c>
       <c r="C261">
-        <v>0.3317972</v>
+        <v>0.451664</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -8573,7 +8551,7 @@
         <v>197</v>
       </c>
       <c r="C262">
-        <v>0.451664</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -8595,7 +8573,7 @@
         <v>198</v>
       </c>
       <c r="C264">
-        <v>0.6528777</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -8628,7 +8606,7 @@
         <v>198</v>
       </c>
       <c r="C267">
-        <v>0.6269231</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -8639,7 +8617,7 @@
         <v>199</v>
       </c>
       <c r="C268">
-        <v>0.5191041</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -8650,7 +8628,7 @@
         <v>199</v>
       </c>
       <c r="C269">
-        <v>0.5072464</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -8705,7 +8683,7 @@
         <v>204</v>
       </c>
       <c r="C274">
-        <v>0.3660856</v>
+        <v>0.3323944</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -8716,7 +8694,7 @@
         <v>204</v>
       </c>
       <c r="C275">
-        <v>0.3323944</v>
+        <v>0.3660856</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -8782,7 +8760,7 @@
         <v>210</v>
       </c>
       <c r="C281">
-        <v>0.6898305</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -8793,7 +8771,7 @@
         <v>210</v>
       </c>
       <c r="C282">
-        <v>0.3636364</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -8804,7 +8782,7 @@
         <v>210</v>
       </c>
       <c r="C283">
-        <v>0.5355932</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -8815,7 +8793,7 @@
         <v>210</v>
       </c>
       <c r="C284">
-        <v>0.2616984</v>
+        <v>0.6898305</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -8826,7 +8804,7 @@
         <v>210</v>
       </c>
       <c r="C285">
-        <v>0.3723776</v>
+        <v>0.2616984</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -8837,7 +8815,7 @@
         <v>211</v>
       </c>
       <c r="C286">
-        <v>0.3010753</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -8848,7 +8826,7 @@
         <v>211</v>
       </c>
       <c r="C287">
-        <v>0.3379416</v>
+        <v>0.5507246</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -8859,7 +8837,7 @@
         <v>211</v>
       </c>
       <c r="C288">
-        <v>0.5507246</v>
+        <v>0.4456522</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -8870,7 +8848,7 @@
         <v>211</v>
       </c>
       <c r="C289">
-        <v>0.4456522</v>
+        <v>0.3010753</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -8892,7 +8870,7 @@
         <v>213</v>
       </c>
       <c r="C291">
-        <v>0.535316</v>
+        <v>0.4609665</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -8903,7 +8881,7 @@
         <v>213</v>
       </c>
       <c r="C292">
-        <v>0.4609665</v>
+        <v>0.535316</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -8914,7 +8892,7 @@
         <v>214</v>
       </c>
       <c r="C293">
-        <v>0.3900344</v>
+        <v>0.423913</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -8925,7 +8903,7 @@
         <v>214</v>
       </c>
       <c r="C294">
-        <v>0.423913</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -8936,7 +8914,7 @@
         <v>215</v>
       </c>
       <c r="C295">
-        <v>0.2920792</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -8947,7 +8925,7 @@
         <v>215</v>
       </c>
       <c r="C296">
-        <v>0.3333333</v>
+        <v>0.2920792</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -9013,7 +8991,7 @@
         <v>219</v>
       </c>
       <c r="C302">
-        <v>0.4263658</v>
+        <v>0.7030995</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -9024,7 +9002,7 @@
         <v>219</v>
       </c>
       <c r="C303">
-        <v>0.7030995</v>
+        <v>0.4263658</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -9035,7 +9013,7 @@
         <v>220</v>
       </c>
       <c r="C304">
-        <v>0.5022971000000001</v>
+        <v>0.4227941</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -9046,7 +9024,7 @@
         <v>220</v>
       </c>
       <c r="C305">
-        <v>0.5514706</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -9057,7 +9035,7 @@
         <v>220</v>
       </c>
       <c r="C306">
-        <v>0.4227941</v>
+        <v>0.5514706</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -9068,7 +9046,7 @@
         <v>221</v>
       </c>
       <c r="C307">
-        <v>0.4769688</v>
+        <v>0.3982169</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -9079,7 +9057,7 @@
         <v>221</v>
       </c>
       <c r="C308">
-        <v>0.3982169</v>
+        <v>0.6666666999999999</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -9090,7 +9068,7 @@
         <v>221</v>
       </c>
       <c r="C309">
-        <v>0.6666666999999999</v>
+        <v>0.3469055</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -9101,7 +9079,7 @@
         <v>221</v>
       </c>
       <c r="C310">
-        <v>0.3469055</v>
+        <v>0.4769688</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -9134,7 +9112,7 @@
         <v>228</v>
       </c>
       <c r="C313">
-        <v>0.374031</v>
+        <v>0.6065891</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -9145,7 +9123,7 @@
         <v>228</v>
       </c>
       <c r="C314">
-        <v>0.430622</v>
+        <v>0.374031</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -9156,7 +9134,7 @@
         <v>228</v>
       </c>
       <c r="C315">
-        <v>0.6065891</v>
+        <v>0.430622</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -9211,7 +9189,7 @@
         <v>231</v>
       </c>
       <c r="C320">
-        <v>0.2704508</v>
+        <v>0.4540902</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -9222,7 +9200,7 @@
         <v>231</v>
       </c>
       <c r="C321">
-        <v>0.4540902</v>
+        <v>0.2956204</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -9233,7 +9211,7 @@
         <v>231</v>
       </c>
       <c r="C322">
-        <v>0.2956204</v>
+        <v>0.2704508</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -9244,7 +9222,7 @@
         <v>232</v>
       </c>
       <c r="C323">
-        <v>0.3625</v>
+        <v>0.4791667</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -9255,7 +9233,7 @@
         <v>232</v>
       </c>
       <c r="C324">
-        <v>0.4791667</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -9310,7 +9288,7 @@
         <v>235</v>
       </c>
       <c r="C329">
-        <v>0.7485822</v>
+        <v>0.3078125</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -9321,7 +9299,7 @@
         <v>235</v>
       </c>
       <c r="C330">
-        <v>0.4393305</v>
+        <v>0.7485822</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -9332,7 +9310,7 @@
         <v>235</v>
       </c>
       <c r="C331">
-        <v>0.3078125</v>
+        <v>0.4393305</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -9387,7 +9365,7 @@
         <v>241</v>
       </c>
       <c r="C336">
-        <v>0.4030303</v>
+        <v>0.3363636</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -9398,7 +9376,7 @@
         <v>241</v>
       </c>
       <c r="C337">
-        <v>0.3363636</v>
+        <v>0.4030303</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -9442,7 +9420,7 @@
         <v>246</v>
       </c>
       <c r="C341">
-        <v>0.7392924</v>
+        <v>0.3631285</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -9453,7 +9431,7 @@
         <v>246</v>
       </c>
       <c r="C342">
-        <v>0.3631285</v>
+        <v>0.7392924</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -9552,7 +9530,7 @@
         <v>255</v>
       </c>
       <c r="C351">
-        <v>0.3228621</v>
+        <v>0.2525773</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -9563,7 +9541,7 @@
         <v>255</v>
       </c>
       <c r="C352">
-        <v>0.5270506</v>
+        <v>0.2757732</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -9574,7 +9552,7 @@
         <v>255</v>
       </c>
       <c r="C353">
-        <v>0.4123711</v>
+        <v>0.5270506</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -9585,7 +9563,7 @@
         <v>255</v>
       </c>
       <c r="C354">
-        <v>0.2757732</v>
+        <v>0.3228621</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -9596,7 +9574,7 @@
         <v>255</v>
       </c>
       <c r="C355">
-        <v>0.2525773</v>
+        <v>0.4123711</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -9684,7 +9662,7 @@
         <v>262</v>
       </c>
       <c r="C363">
-        <v>0.3502415</v>
+        <v>0.2491909</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -9695,7 +9673,7 @@
         <v>262</v>
       </c>
       <c r="C364">
-        <v>0.2491909</v>
+        <v>0.3502415</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -9816,7 +9794,7 @@
         <v>275</v>
       </c>
       <c r="C375">
-        <v>0.3431085</v>
+        <v>0.4662757</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -9827,7 +9805,7 @@
         <v>275</v>
       </c>
       <c r="C376">
-        <v>0.4662757</v>
+        <v>0.3431085</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -9871,7 +9849,7 @@
         <v>280</v>
       </c>
       <c r="C380">
-        <v>0.5641026</v>
+        <v>0.5927602</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -9882,7 +9860,7 @@
         <v>280</v>
       </c>
       <c r="C381">
-        <v>0.5927602</v>
+        <v>0.5641026</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -9893,7 +9871,7 @@
         <v>281</v>
       </c>
       <c r="C382">
-        <v>0.2566735</v>
+        <v>0.2231076</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -9904,7 +9882,7 @@
         <v>281</v>
       </c>
       <c r="C383">
-        <v>0.2231076</v>
+        <v>0.2566735</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -9926,7 +9904,7 @@
         <v>284</v>
       </c>
       <c r="C385">
-        <v>0.2928571</v>
+        <v>0.264624</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -9937,7 +9915,7 @@
         <v>284</v>
       </c>
       <c r="C386">
-        <v>0.264624</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -9981,7 +9959,7 @@
         <v>288</v>
       </c>
       <c r="C390">
-        <v>0.2696897</v>
+        <v>0.5315315</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -9992,7 +9970,7 @@
         <v>288</v>
       </c>
       <c r="C391">
-        <v>0.5315315</v>
+        <v>0.2696897</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -10080,7 +10058,7 @@
         <v>296</v>
       </c>
       <c r="C399">
-        <v>0.414966</v>
+        <v>0.540305</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -10091,7 +10069,7 @@
         <v>296</v>
       </c>
       <c r="C400">
-        <v>0.540305</v>
+        <v>0.2200436</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -10102,7 +10080,7 @@
         <v>296</v>
       </c>
       <c r="C401">
-        <v>0.2200436</v>
+        <v>0.2135076</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -10113,7 +10091,7 @@
         <v>296</v>
       </c>
       <c r="C402">
-        <v>0.2135076</v>
+        <v>0.414966</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -10143,10 +10121,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C405">
-        <v>0.4466019</v>
+        <v>0.2412587</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -10154,10 +10132,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C406">
-        <v>0.2291169</v>
+        <v>0.2823529</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -10165,10 +10143,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C407">
-        <v>0.2412587</v>
+        <v>0.1147059</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -10176,10 +10154,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C408">
-        <v>0.2823529</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -10187,10 +10165,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C409">
-        <v>0.1147059</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -10198,10 +10176,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C410">
-        <v>0.2011494</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -10209,10 +10187,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C411">
-        <v>0.1826625</v>
+        <v>0.1168478</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -10220,10 +10198,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C412">
-        <v>0.1657609</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -10231,10 +10209,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C413">
-        <v>0.1168478</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -10242,10 +10220,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C414">
-        <v>0.2068966</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -10253,10 +10231,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C415">
-        <v>0.2135417</v>
+        <v>0.1375661</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -10264,10 +10242,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C416">
-        <v>0.2086168</v>
+        <v>0.2436548</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -10275,10 +10253,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C417">
-        <v>0.1375661</v>
+        <v>0.1015228</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -10289,7 +10267,7 @@
         <v>317</v>
       </c>
       <c r="C418">
-        <v>0.2436548</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -10297,10 +10275,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C419">
-        <v>0.1015228</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -10308,10 +10286,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C420">
-        <v>0.1458333</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -10319,10 +10297,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C421">
-        <v>0.1153846</v>
+        <v>0.1504065</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -10330,10 +10308,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C422">
-        <v>0.2258065</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -10341,10 +10319,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C423">
-        <v>0.1504065</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -10352,10 +10330,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C424">
-        <v>0.25</v>
+        <v>0.1434109</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -10363,31 +10341,9 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C425">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="B426">
-        <v>348</v>
-      </c>
-      <c r="C426">
-        <v>0.1434109</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="B427">
-        <v>348</v>
-      </c>
-      <c r="C427">
         <v>0.1046512</v>
       </c>
     </row>
@@ -10398,7 +10354,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C387"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10434,7 +10390,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1253644</v>
+        <v>0.122449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10445,7 +10401,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.122449</v>
+        <v>0.1253644</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10456,7 +10412,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.1146497</v>
+        <v>0.111465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10467,7 +10423,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.111465</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10489,7 +10445,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.1209302</v>
+        <v>0.1273585</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10500,7 +10456,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1273585</v>
+        <v>0.1209302</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10533,7 +10489,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0541516</v>
+        <v>0.1407942</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10544,7 +10500,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.1407942</v>
+        <v>0.0541516</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10588,7 +10544,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.0552326</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10599,7 +10555,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.1029186</v>
+        <v>0.0552326</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10610,7 +10566,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1046512</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10720,7 +10676,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>0.1107784</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10731,7 +10687,7 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>0.1127451</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10775,7 +10731,7 @@
         <v>25</v>
       </c>
       <c r="C34">
-        <v>0.1221374</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10786,7 +10742,7 @@
         <v>25</v>
       </c>
       <c r="C35">
-        <v>0.0763359</v>
+        <v>0.0839695</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10797,7 +10753,7 @@
         <v>25</v>
       </c>
       <c r="C36">
-        <v>0.0839695</v>
+        <v>0.1221374</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10819,7 +10775,7 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>0.0518359</v>
+        <v>0.0993521</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10830,7 +10786,7 @@
         <v>30</v>
       </c>
       <c r="C39">
-        <v>0.0993521</v>
+        <v>0.0518359</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10852,7 +10808,7 @@
         <v>32</v>
       </c>
       <c r="C41">
-        <v>0.1420455</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10863,7 +10819,7 @@
         <v>32</v>
       </c>
       <c r="C42">
-        <v>0.08522730000000001</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10874,7 +10830,7 @@
         <v>33</v>
       </c>
       <c r="C43">
-        <v>0.1437908</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10885,7 +10841,7 @@
         <v>33</v>
       </c>
       <c r="C44">
-        <v>0.09230770000000001</v>
+        <v>0.1437908</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10973,7 +10929,7 @@
         <v>37</v>
       </c>
       <c r="C52">
-        <v>0.1487603</v>
+        <v>0.0619835</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10984,7 +10940,7 @@
         <v>37</v>
       </c>
       <c r="C53">
-        <v>0.0619835</v>
+        <v>0.1157025</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10995,7 +10951,7 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>0.1157025</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -11006,7 +10962,7 @@
         <v>38</v>
       </c>
       <c r="C55">
-        <v>0.09157510000000001</v>
+        <v>0.0695971</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -11028,7 +10984,7 @@
         <v>38</v>
       </c>
       <c r="C57">
-        <v>0.0695971</v>
+        <v>0.09157510000000001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -11094,7 +11050,7 @@
         <v>44</v>
       </c>
       <c r="C63">
-        <v>0.0814815</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -11105,7 +11061,7 @@
         <v>44</v>
       </c>
       <c r="C64">
-        <v>0.1259259</v>
+        <v>0.0814815</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -11138,7 +11094,7 @@
         <v>49</v>
       </c>
       <c r="C67">
-        <v>0.1318052</v>
+        <v>0.1619433</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -11149,7 +11105,7 @@
         <v>49</v>
       </c>
       <c r="C68">
-        <v>0.1619433</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11160,7 +11116,7 @@
         <v>49</v>
       </c>
       <c r="C69">
-        <v>0.145749</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -11193,7 +11149,7 @@
         <v>53</v>
       </c>
       <c r="C72">
-        <v>0.1280488</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -11204,7 +11160,7 @@
         <v>53</v>
       </c>
       <c r="C73">
-        <v>0.1158537</v>
+        <v>0.1280488</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -11248,7 +11204,7 @@
         <v>58</v>
       </c>
       <c r="C77">
-        <v>0.17506</v>
+        <v>0.1486811</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -11259,7 +11215,7 @@
         <v>58</v>
       </c>
       <c r="C78">
-        <v>0.1486811</v>
+        <v>0.17506</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -11270,7 +11226,7 @@
         <v>62</v>
       </c>
       <c r="C79">
-        <v>0.1232493</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -11281,7 +11237,7 @@
         <v>62</v>
       </c>
       <c r="C80">
-        <v>0.1176471</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -11292,7 +11248,7 @@
         <v>62</v>
       </c>
       <c r="C81">
-        <v>0.1192308</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -11325,7 +11281,7 @@
         <v>64</v>
       </c>
       <c r="C84">
-        <v>0.07142859999999999</v>
+        <v>0.06530610000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -11336,7 +11292,7 @@
         <v>64</v>
       </c>
       <c r="C85">
-        <v>0.06530610000000001</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -11369,7 +11325,7 @@
         <v>70</v>
       </c>
       <c r="C88">
-        <v>0.1233596</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -11380,7 +11336,7 @@
         <v>70</v>
       </c>
       <c r="C89">
-        <v>0.0524934</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -11391,7 +11347,7 @@
         <v>70</v>
       </c>
       <c r="C90">
-        <v>0.1138015</v>
+        <v>0.0524934</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -11402,7 +11358,7 @@
         <v>71</v>
       </c>
       <c r="C91">
-        <v>0.1021021</v>
+        <v>0.0507614</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -11413,7 +11369,7 @@
         <v>71</v>
       </c>
       <c r="C92">
-        <v>0.0507614</v>
+        <v>0.1021021</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -11424,7 +11380,7 @@
         <v>72</v>
       </c>
       <c r="C93">
-        <v>0.0751445</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -11435,7 +11391,7 @@
         <v>72</v>
       </c>
       <c r="C94">
-        <v>0.0826446</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -11468,7 +11424,7 @@
         <v>73</v>
       </c>
       <c r="C97">
-        <v>0.0668449</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -11479,7 +11435,7 @@
         <v>73</v>
       </c>
       <c r="C98">
-        <v>0.1170213</v>
+        <v>0.0668449</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -11512,7 +11468,7 @@
         <v>75</v>
       </c>
       <c r="C101">
-        <v>0.09230770000000001</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -11523,7 +11479,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.125</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -11534,7 +11490,7 @@
         <v>75</v>
       </c>
       <c r="C103">
-        <v>0.1428571</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -11545,7 +11501,7 @@
         <v>75</v>
       </c>
       <c r="C104">
-        <v>0.0506757</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -11567,7 +11523,7 @@
         <v>75</v>
       </c>
       <c r="C106">
-        <v>0.1418919</v>
+        <v>0.0506757</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -11589,7 +11545,7 @@
         <v>76</v>
       </c>
       <c r="C108">
-        <v>0.0786517</v>
+        <v>0.059761</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -11600,7 +11556,7 @@
         <v>76</v>
       </c>
       <c r="C109">
-        <v>0.1155378</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -11611,7 +11567,7 @@
         <v>76</v>
       </c>
       <c r="C110">
-        <v>0.059761</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -11622,7 +11578,7 @@
         <v>77</v>
       </c>
       <c r="C111">
-        <v>0.0612245</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -11655,7 +11611,7 @@
         <v>77</v>
       </c>
       <c r="C114">
-        <v>0.1119792</v>
+        <v>0.0612245</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -11666,7 +11622,7 @@
         <v>78</v>
       </c>
       <c r="C115">
-        <v>0.1072261</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -11677,7 +11633,7 @@
         <v>78</v>
       </c>
       <c r="C116">
-        <v>0.114094</v>
+        <v>0.1072261</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -11798,7 +11754,7 @@
         <v>85</v>
       </c>
       <c r="C127">
-        <v>0.1041667</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -11831,7 +11787,7 @@
         <v>85</v>
       </c>
       <c r="C130">
-        <v>0.0841837</v>
+        <v>0.1352041</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -11842,7 +11798,7 @@
         <v>85</v>
       </c>
       <c r="C131">
-        <v>0.1352041</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -11875,7 +11831,7 @@
         <v>89</v>
       </c>
       <c r="C134">
-        <v>0.0888383</v>
+        <v>0.1329114</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11897,7 +11853,7 @@
         <v>89</v>
       </c>
       <c r="C136">
-        <v>0.1329114</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -11919,7 +11875,7 @@
         <v>90</v>
       </c>
       <c r="C138">
-        <v>0.0835735</v>
+        <v>0.1066282</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -11930,7 +11886,7 @@
         <v>90</v>
       </c>
       <c r="C139">
-        <v>0.1384615</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -11941,7 +11897,7 @@
         <v>90</v>
       </c>
       <c r="C140">
-        <v>0.1066282</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -11952,7 +11908,7 @@
         <v>91</v>
       </c>
       <c r="C141">
-        <v>0.1163311</v>
+        <v>0.1431767</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -11963,7 +11919,7 @@
         <v>91</v>
       </c>
       <c r="C142">
-        <v>0.1431767</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -11985,7 +11941,7 @@
         <v>91</v>
       </c>
       <c r="C144">
-        <v>0.09090910000000001</v>
+        <v>0.08053689999999999</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -11996,7 +11952,7 @@
         <v>91</v>
       </c>
       <c r="C145">
-        <v>0.08053689999999999</v>
+        <v>0.1163311</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -12007,7 +11963,7 @@
         <v>92</v>
       </c>
       <c r="C146">
-        <v>0.08860759999999999</v>
+        <v>0.2126582</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -12018,7 +11974,7 @@
         <v>92</v>
       </c>
       <c r="C147">
-        <v>0.0887681</v>
+        <v>0.08860759999999999</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -12029,7 +11985,7 @@
         <v>92</v>
       </c>
       <c r="C148">
-        <v>0.2126582</v>
+        <v>0.0887681</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -12040,7 +11996,7 @@
         <v>93</v>
       </c>
       <c r="C149">
-        <v>0.0822368</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -12051,7 +12007,7 @@
         <v>93</v>
       </c>
       <c r="C150">
-        <v>0.0979782</v>
+        <v>0.0822368</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -12073,7 +12029,7 @@
         <v>93</v>
       </c>
       <c r="C152">
-        <v>0.0917574</v>
+        <v>0.0979782</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -12106,7 +12062,7 @@
         <v>95</v>
       </c>
       <c r="C155">
-        <v>0.1945525</v>
+        <v>0.2140078</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -12117,7 +12073,7 @@
         <v>95</v>
       </c>
       <c r="C156">
-        <v>0.2140078</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -12183,7 +12139,7 @@
         <v>98</v>
       </c>
       <c r="C162">
-        <v>0.1941075</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -12194,7 +12150,7 @@
         <v>98</v>
       </c>
       <c r="C163">
-        <v>0.1403813</v>
+        <v>0.1941075</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -12227,7 +12183,7 @@
         <v>101</v>
       </c>
       <c r="C166">
-        <v>0.2144578</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -12238,7 +12194,7 @@
         <v>101</v>
       </c>
       <c r="C167">
-        <v>0.1966019</v>
+        <v>0.2144578</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -12282,7 +12238,7 @@
         <v>103</v>
       </c>
       <c r="C171">
-        <v>0.1840909</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -12293,7 +12249,7 @@
         <v>103</v>
       </c>
       <c r="C172">
-        <v>0.1438053</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -12315,7 +12271,7 @@
         <v>104</v>
       </c>
       <c r="C174">
-        <v>0.09003220000000001</v>
+        <v>0.2177122</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -12326,7 +12282,7 @@
         <v>104</v>
       </c>
       <c r="C175">
-        <v>0.1268382</v>
+        <v>0.2073955</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -12337,7 +12293,7 @@
         <v>104</v>
       </c>
       <c r="C176">
-        <v>0.2177122</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -12348,7 +12304,7 @@
         <v>104</v>
       </c>
       <c r="C177">
-        <v>0.2073955</v>
+        <v>0.09003220000000001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -12381,7 +12337,7 @@
         <v>118</v>
       </c>
       <c r="C180">
-        <v>0.1031308</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -12392,7 +12348,7 @@
         <v>118</v>
       </c>
       <c r="C181">
-        <v>0.213628</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -12403,7 +12359,7 @@
         <v>118</v>
       </c>
       <c r="C182">
-        <v>0.1889764</v>
+        <v>0.1031308</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -12480,7 +12436,7 @@
         <v>123</v>
       </c>
       <c r="C189">
-        <v>0.4084778</v>
+        <v>0.2715827</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -12491,7 +12447,7 @@
         <v>123</v>
       </c>
       <c r="C190">
-        <v>0.2715827</v>
+        <v>0.4084778</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -12788,7 +12744,7 @@
         <v>178</v>
       </c>
       <c r="C217">
-        <v>0.3736264</v>
+        <v>0.7197802</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -12799,7 +12755,7 @@
         <v>178</v>
       </c>
       <c r="C218">
-        <v>0.7197802</v>
+        <v>0.3736264</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -12832,7 +12788,7 @@
         <v>187</v>
       </c>
       <c r="C221">
-        <v>0.4344392</v>
+        <v>0.5102564000000001</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -12843,7 +12799,7 @@
         <v>187</v>
       </c>
       <c r="C222">
-        <v>0.5576923</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -12854,7 +12810,7 @@
         <v>187</v>
       </c>
       <c r="C223">
-        <v>0.5102564000000001</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -12876,7 +12832,7 @@
         <v>189</v>
       </c>
       <c r="C225">
-        <v>0.4017857</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -12887,7 +12843,7 @@
         <v>189</v>
       </c>
       <c r="C226">
-        <v>0.5909091</v>
+        <v>0.400974</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -12898,7 +12854,7 @@
         <v>189</v>
       </c>
       <c r="C227">
-        <v>0.400974</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -12986,7 +12942,7 @@
         <v>198</v>
       </c>
       <c r="C235">
-        <v>0.6528777</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -13008,7 +12964,7 @@
         <v>198</v>
       </c>
       <c r="C237">
-        <v>0.6269231</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -13019,7 +12975,7 @@
         <v>199</v>
       </c>
       <c r="C238">
-        <v>0.5191041</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -13030,7 +12986,7 @@
         <v>199</v>
       </c>
       <c r="C239">
-        <v>0.5072464</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -13129,7 +13085,7 @@
         <v>210</v>
       </c>
       <c r="C248">
-        <v>0.2616984</v>
+        <v>0.6898305</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -13140,7 +13096,7 @@
         <v>210</v>
       </c>
       <c r="C249">
-        <v>0.3636364</v>
+        <v>0.2616984</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -13151,7 +13107,7 @@
         <v>210</v>
       </c>
       <c r="C250">
-        <v>0.6898305</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -13162,7 +13118,7 @@
         <v>211</v>
       </c>
       <c r="C251">
-        <v>0.3379416</v>
+        <v>0.5507246</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -13173,7 +13129,7 @@
         <v>211</v>
       </c>
       <c r="C252">
-        <v>0.4456522</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -13184,7 +13140,7 @@
         <v>211</v>
       </c>
       <c r="C253">
-        <v>0.5507246</v>
+        <v>0.4456522</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -13206,7 +13162,7 @@
         <v>214</v>
       </c>
       <c r="C255">
-        <v>0.3900344</v>
+        <v>0.423913</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -13217,7 +13173,7 @@
         <v>214</v>
       </c>
       <c r="C256">
-        <v>0.423913</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -13239,7 +13195,7 @@
         <v>216</v>
       </c>
       <c r="C258">
-        <v>0.3191176</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -13250,7 +13206,7 @@
         <v>216</v>
       </c>
       <c r="C259">
-        <v>0.3642241</v>
+        <v>0.3191176</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -13283,7 +13239,7 @@
         <v>219</v>
       </c>
       <c r="C262">
-        <v>0.4263658</v>
+        <v>0.7030995</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -13294,7 +13250,7 @@
         <v>219</v>
       </c>
       <c r="C263">
-        <v>0.7030995</v>
+        <v>0.4263658</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -13316,7 +13272,7 @@
         <v>220</v>
       </c>
       <c r="C265">
-        <v>0.4227941</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -13327,7 +13283,7 @@
         <v>220</v>
       </c>
       <c r="C266">
-        <v>0.5022971000000001</v>
+        <v>0.4227941</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -13349,7 +13305,7 @@
         <v>221</v>
       </c>
       <c r="C268">
-        <v>0.6666666999999999</v>
+        <v>0.3982169</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -13371,7 +13327,7 @@
         <v>221</v>
       </c>
       <c r="C270">
-        <v>0.3982169</v>
+        <v>0.6666666999999999</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -13459,7 +13415,7 @@
         <v>230</v>
       </c>
       <c r="C278">
-        <v>0.3713235</v>
+        <v>0.4797794</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -13470,7 +13426,7 @@
         <v>230</v>
       </c>
       <c r="C279">
-        <v>0.4797794</v>
+        <v>0.3713235</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -13481,7 +13437,7 @@
         <v>231</v>
       </c>
       <c r="C280">
-        <v>0.2956204</v>
+        <v>0.4540902</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -13492,7 +13448,7 @@
         <v>231</v>
       </c>
       <c r="C281">
-        <v>0.4540902</v>
+        <v>0.2956204</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -13536,7 +13492,7 @@
         <v>233</v>
       </c>
       <c r="C285">
-        <v>0.4237288</v>
+        <v>0.6924101</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -13547,7 +13503,7 @@
         <v>233</v>
       </c>
       <c r="C286">
-        <v>0.6924101</v>
+        <v>0.4237288</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -13580,7 +13536,7 @@
         <v>235</v>
       </c>
       <c r="C289">
-        <v>0.3078125</v>
+        <v>0.7485822</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -13591,7 +13547,7 @@
         <v>235</v>
       </c>
       <c r="C290">
-        <v>0.7485822</v>
+        <v>0.4393305</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -13602,7 +13558,7 @@
         <v>235</v>
       </c>
       <c r="C291">
-        <v>0.4393305</v>
+        <v>0.3078125</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -13679,7 +13635,7 @@
         <v>242</v>
       </c>
       <c r="C298">
-        <v>0.4646782</v>
+        <v>0.43898</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -13690,7 +13646,7 @@
         <v>242</v>
       </c>
       <c r="C299">
-        <v>0.43898</v>
+        <v>0.4646782</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -13712,7 +13668,7 @@
         <v>246</v>
       </c>
       <c r="C301">
-        <v>0.3631285</v>
+        <v>0.7392924</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -13723,7 +13679,7 @@
         <v>246</v>
       </c>
       <c r="C302">
-        <v>0.7392924</v>
+        <v>0.3631285</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -13734,7 +13690,7 @@
         <v>247</v>
       </c>
       <c r="C303">
-        <v>0.5961071</v>
+        <v>0.3944954</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -13745,7 +13701,7 @@
         <v>247</v>
       </c>
       <c r="C304">
-        <v>0.3944954</v>
+        <v>0.5961071</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -13800,7 +13756,7 @@
         <v>254</v>
       </c>
       <c r="C309">
-        <v>0.5</v>
+        <v>0.6770073</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -13811,7 +13767,7 @@
         <v>254</v>
       </c>
       <c r="C310">
-        <v>0.6770073</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -13822,7 +13778,7 @@
         <v>255</v>
       </c>
       <c r="C311">
-        <v>0.5270506</v>
+        <v>0.3228621</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -13833,7 +13789,7 @@
         <v>255</v>
       </c>
       <c r="C312">
-        <v>0.4123711</v>
+        <v>0.2757732</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -13844,7 +13800,7 @@
         <v>255</v>
       </c>
       <c r="C313">
-        <v>0.3228621</v>
+        <v>0.4123711</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -13855,7 +13811,7 @@
         <v>255</v>
       </c>
       <c r="C314">
-        <v>0.2757732</v>
+        <v>0.5270506</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -13899,7 +13855,7 @@
         <v>259</v>
       </c>
       <c r="C318">
-        <v>0.592668</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -13910,7 +13866,7 @@
         <v>259</v>
       </c>
       <c r="C319">
-        <v>0.4233871</v>
+        <v>0.592668</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -13954,7 +13910,7 @@
         <v>262</v>
       </c>
       <c r="C323">
-        <v>0.3502415</v>
+        <v>0.2491909</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -13965,7 +13921,7 @@
         <v>262</v>
       </c>
       <c r="C324">
-        <v>0.2491909</v>
+        <v>0.3502415</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -13998,7 +13954,7 @@
         <v>266</v>
       </c>
       <c r="C327">
-        <v>0.2694878</v>
+        <v>0.2880658</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -14009,7 +13965,7 @@
         <v>266</v>
       </c>
       <c r="C328">
-        <v>0.2880658</v>
+        <v>0.2694878</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -14163,7 +14119,7 @@
         <v>281</v>
       </c>
       <c r="C342">
-        <v>0.2231076</v>
+        <v>0.2566735</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -14174,7 +14130,7 @@
         <v>281</v>
       </c>
       <c r="C343">
-        <v>0.2566735</v>
+        <v>0.2231076</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -14196,7 +14152,7 @@
         <v>284</v>
       </c>
       <c r="C345">
-        <v>0.2924791</v>
+        <v>0.264624</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -14207,7 +14163,7 @@
         <v>284</v>
       </c>
       <c r="C346">
-        <v>0.264624</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -14218,7 +14174,7 @@
         <v>284</v>
       </c>
       <c r="C347">
-        <v>0.2928571</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -14273,7 +14229,7 @@
         <v>289</v>
       </c>
       <c r="C352">
-        <v>0.4387528</v>
+        <v>0.5033408</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -14284,7 +14240,7 @@
         <v>289</v>
       </c>
       <c r="C353">
-        <v>0.5033408</v>
+        <v>0.4387528</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -14317,7 +14273,7 @@
         <v>293</v>
       </c>
       <c r="C356">
-        <v>0.5496368</v>
+        <v>0.3888889</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -14328,7 +14284,7 @@
         <v>293</v>
       </c>
       <c r="C357">
-        <v>0.3888889</v>
+        <v>0.5496368</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -14350,7 +14306,7 @@
         <v>296</v>
       </c>
       <c r="C359">
-        <v>0.2135076</v>
+        <v>0.2200436</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -14361,7 +14317,7 @@
         <v>296</v>
       </c>
       <c r="C360">
-        <v>0.2200436</v>
+        <v>0.414966</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -14372,7 +14328,7 @@
         <v>296</v>
       </c>
       <c r="C361">
-        <v>0.414966</v>
+        <v>0.540305</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -14383,7 +14339,7 @@
         <v>296</v>
       </c>
       <c r="C362">
-        <v>0.540305</v>
+        <v>0.2135076</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -14413,10 +14369,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C365">
-        <v>0.4466019</v>
+        <v>0.2412587</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -14424,10 +14380,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C366">
-        <v>0.2291169</v>
+        <v>0.1147059</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -14435,10 +14391,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C367">
-        <v>0.2412587</v>
+        <v>0.2823529</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -14446,10 +14402,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C368">
-        <v>0.2823529</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -14457,10 +14413,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C369">
-        <v>0.1147059</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -14468,10 +14424,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C370">
-        <v>0.2011494</v>
+        <v>0.1168478</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -14479,10 +14435,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C371">
-        <v>0.1826625</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -14490,10 +14446,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C372">
-        <v>0.1168478</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -14501,10 +14457,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C373">
-        <v>0.1657609</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -14512,10 +14468,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C374">
-        <v>0.2068966</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -14523,10 +14479,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C375">
-        <v>0.2135417</v>
+        <v>0.1375661</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -14534,10 +14490,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C376">
-        <v>0.2086168</v>
+        <v>0.2436548</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -14545,10 +14501,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C377">
-        <v>0.1375661</v>
+        <v>0.1015228</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -14559,7 +14515,7 @@
         <v>317</v>
       </c>
       <c r="C378">
-        <v>0.2436548</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -14567,10 +14523,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C379">
-        <v>0.1015228</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -14578,10 +14534,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C380">
-        <v>0.1458333</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -14589,10 +14545,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C381">
-        <v>0.1153846</v>
+        <v>0.1504065</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -14600,10 +14556,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C382">
-        <v>0.2258065</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -14611,10 +14567,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C383">
-        <v>0.1504065</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -14622,10 +14578,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C384">
-        <v>0.25</v>
+        <v>0.1434109</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -14633,31 +14589,9 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C385">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="1">
-        <v>384</v>
-      </c>
-      <c r="B386">
-        <v>348</v>
-      </c>
-      <c r="C386">
-        <v>0.1434109</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="1">
-        <v>385</v>
-      </c>
-      <c r="B387">
-        <v>348</v>
-      </c>
-      <c r="C387">
         <v>0.1046512</v>
       </c>
     </row>
@@ -14668,7 +14602,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C318"/>
+  <dimension ref="A1:C316"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14891,7 +14825,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.0693069</v>
+        <v>0.0990099</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14902,7 +14836,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.0990099</v>
+        <v>0.0693069</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14946,7 +14880,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.0637255</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14957,7 +14891,7 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>0.1107784</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14968,7 +14902,7 @@
         <v>23</v>
       </c>
       <c r="C27">
-        <v>0.1127451</v>
+        <v>0.0637255</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -15034,7 +14968,7 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>0.0993521</v>
+        <v>0.1187905</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15045,7 +14979,7 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <v>0.1187905</v>
+        <v>0.0993521</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15056,7 +14990,7 @@
         <v>32</v>
       </c>
       <c r="C35">
-        <v>0.1420455</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15067,7 +15001,7 @@
         <v>32</v>
       </c>
       <c r="C36">
-        <v>0.08522730000000001</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15100,7 +15034,7 @@
         <v>34</v>
       </c>
       <c r="C39">
-        <v>0.1384615</v>
+        <v>0.1472868</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15111,7 +15045,7 @@
         <v>34</v>
       </c>
       <c r="C40">
-        <v>0.124031</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15122,7 +15056,7 @@
         <v>34</v>
       </c>
       <c r="C41">
-        <v>0.1472868</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15133,7 +15067,7 @@
         <v>35</v>
       </c>
       <c r="C42">
-        <v>0.1088083</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15144,7 +15078,7 @@
         <v>35</v>
       </c>
       <c r="C43">
-        <v>0.1243523</v>
+        <v>0.1088083</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15166,7 +15100,7 @@
         <v>37</v>
       </c>
       <c r="C45">
-        <v>0.1157025</v>
+        <v>0.107438</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -15177,7 +15111,7 @@
         <v>37</v>
       </c>
       <c r="C46">
-        <v>0.1487603</v>
+        <v>0.1157025</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15188,7 +15122,7 @@
         <v>37</v>
       </c>
       <c r="C47">
-        <v>0.107438</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15287,7 +15221,7 @@
         <v>44</v>
       </c>
       <c r="C56">
-        <v>0.1259259</v>
+        <v>0.0814815</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -15298,7 +15232,7 @@
         <v>44</v>
       </c>
       <c r="C57">
-        <v>0.0814815</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -15309,7 +15243,7 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>0.0674157</v>
+        <v>0.1741573</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -15320,7 +15254,7 @@
         <v>45</v>
       </c>
       <c r="C59">
-        <v>0.1741573</v>
+        <v>0.0674157</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -15364,7 +15298,7 @@
         <v>50</v>
       </c>
       <c r="C63">
-        <v>0.1698113</v>
+        <v>0.0808625</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -15375,7 +15309,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.0808625</v>
+        <v>0.1698113</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -15463,7 +15397,7 @@
         <v>62</v>
       </c>
       <c r="C72">
-        <v>0.1192308</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -15474,7 +15408,7 @@
         <v>62</v>
       </c>
       <c r="C73">
-        <v>0.1176471</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -15485,7 +15419,7 @@
         <v>62</v>
       </c>
       <c r="C74">
-        <v>0.1232493</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -15496,7 +15430,7 @@
         <v>63</v>
       </c>
       <c r="C75">
-        <v>0.0825472</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -15507,7 +15441,7 @@
         <v>63</v>
       </c>
       <c r="C76">
-        <v>0.0943396</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -15584,7 +15518,7 @@
         <v>71</v>
       </c>
       <c r="C83">
-        <v>0.1021021</v>
+        <v>0.0507614</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -15595,7 +15529,7 @@
         <v>71</v>
       </c>
       <c r="C84">
-        <v>0.0507614</v>
+        <v>0.1021021</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -15628,7 +15562,7 @@
         <v>72</v>
       </c>
       <c r="C87">
-        <v>0.0751445</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -15639,7 +15573,7 @@
         <v>72</v>
       </c>
       <c r="C88">
-        <v>0.0826446</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -15650,7 +15584,7 @@
         <v>73</v>
       </c>
       <c r="C89">
-        <v>0.1170213</v>
+        <v>0.0668449</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -15661,7 +15595,7 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>0.0668449</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -15672,7 +15606,7 @@
         <v>74</v>
       </c>
       <c r="C91">
-        <v>0.1456693</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -15683,7 +15617,7 @@
         <v>74</v>
       </c>
       <c r="C92">
-        <v>0.1428571</v>
+        <v>0.1456693</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -15694,7 +15628,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.125</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -15705,7 +15639,7 @@
         <v>75</v>
       </c>
       <c r="C94">
-        <v>0.09230770000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -15716,7 +15650,7 @@
         <v>75</v>
       </c>
       <c r="C95">
-        <v>0.1428571</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -15727,7 +15661,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.1418919</v>
+        <v>0.1435897</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -15738,7 +15672,7 @@
         <v>75</v>
       </c>
       <c r="C97">
-        <v>0.0506757</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -15749,7 +15683,7 @@
         <v>75</v>
       </c>
       <c r="C98">
-        <v>0.1435897</v>
+        <v>0.0506757</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -15760,7 +15694,7 @@
         <v>76</v>
       </c>
       <c r="C99">
-        <v>0.0786517</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -15771,7 +15705,7 @@
         <v>76</v>
       </c>
       <c r="C100">
-        <v>0.1155378</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -15925,7 +15859,7 @@
         <v>84</v>
       </c>
       <c r="C114">
-        <v>0.0705128</v>
+        <v>0.08119659999999999</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -15936,7 +15870,7 @@
         <v>84</v>
       </c>
       <c r="C115">
-        <v>0.08119659999999999</v>
+        <v>0.08883249999999999</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -15947,7 +15881,7 @@
         <v>84</v>
       </c>
       <c r="C116">
-        <v>0.08883249999999999</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -15969,7 +15903,7 @@
         <v>85</v>
       </c>
       <c r="C118">
-        <v>0.0544218</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -15980,7 +15914,7 @@
         <v>85</v>
       </c>
       <c r="C119">
-        <v>0.0841837</v>
+        <v>0.0544218</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -15991,7 +15925,7 @@
         <v>85</v>
       </c>
       <c r="C120">
-        <v>0.1041667</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -16024,7 +15958,7 @@
         <v>89</v>
       </c>
       <c r="C123">
-        <v>0.1329114</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -16035,7 +15969,7 @@
         <v>89</v>
       </c>
       <c r="C124">
-        <v>0.0888383</v>
+        <v>0.1329114</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -16046,7 +15980,7 @@
         <v>89</v>
       </c>
       <c r="C125">
-        <v>0.07383969999999999</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -16079,7 +16013,7 @@
         <v>90</v>
       </c>
       <c r="C128">
-        <v>0.0835735</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -16090,7 +16024,7 @@
         <v>90</v>
       </c>
       <c r="C129">
-        <v>0.1384615</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -16112,7 +16046,7 @@
         <v>91</v>
       </c>
       <c r="C131">
-        <v>0.09090910000000001</v>
+        <v>0.08053689999999999</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -16123,7 +16057,7 @@
         <v>91</v>
       </c>
       <c r="C132">
-        <v>0.08053689999999999</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -16145,7 +16079,7 @@
         <v>92</v>
       </c>
       <c r="C134">
-        <v>0.0887681</v>
+        <v>0.2126582</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -16156,7 +16090,7 @@
         <v>92</v>
       </c>
       <c r="C135">
-        <v>0.08860759999999999</v>
+        <v>0.0887681</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -16167,7 +16101,7 @@
         <v>92</v>
       </c>
       <c r="C136">
-        <v>0.2126582</v>
+        <v>0.08860759999999999</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -16178,7 +16112,7 @@
         <v>93</v>
       </c>
       <c r="C137">
-        <v>0.1278863</v>
+        <v>0.0822368</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -16189,7 +16123,7 @@
         <v>93</v>
       </c>
       <c r="C138">
-        <v>0.0822368</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -16200,7 +16134,7 @@
         <v>93</v>
       </c>
       <c r="C139">
-        <v>0.0979782</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -16211,7 +16145,7 @@
         <v>93</v>
       </c>
       <c r="C140">
-        <v>0.0917574</v>
+        <v>0.0979782</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -16310,7 +16244,7 @@
         <v>101</v>
       </c>
       <c r="C149">
-        <v>0.2144578</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -16321,7 +16255,7 @@
         <v>101</v>
       </c>
       <c r="C150">
-        <v>0.1855422</v>
+        <v>0.2144578</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -16365,7 +16299,7 @@
         <v>103</v>
       </c>
       <c r="C154">
-        <v>0.1438053</v>
+        <v>0.1954545</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -16376,7 +16310,7 @@
         <v>103</v>
       </c>
       <c r="C155">
-        <v>0.1954545</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -16387,7 +16321,7 @@
         <v>104</v>
       </c>
       <c r="C156">
-        <v>0.1268382</v>
+        <v>0.2073955</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -16409,7 +16343,7 @@
         <v>104</v>
       </c>
       <c r="C158">
-        <v>0.2073955</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -16783,7 +16717,7 @@
         <v>173</v>
       </c>
       <c r="C192">
-        <v>0.6850829000000001</v>
+        <v>0.5082873</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -16794,7 +16728,7 @@
         <v>173</v>
       </c>
       <c r="C193">
-        <v>0.5082873</v>
+        <v>0.6850829000000001</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -16849,7 +16783,7 @@
         <v>187</v>
       </c>
       <c r="C198">
-        <v>0.5576923</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -16860,7 +16794,7 @@
         <v>187</v>
       </c>
       <c r="C199">
-        <v>0.4344392</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -16871,7 +16805,7 @@
         <v>189</v>
       </c>
       <c r="C200">
-        <v>0.4017857</v>
+        <v>0.400974</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -16893,7 +16827,7 @@
         <v>189</v>
       </c>
       <c r="C202">
-        <v>0.400974</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -16926,7 +16860,7 @@
         <v>194</v>
       </c>
       <c r="C205">
-        <v>0.3188623</v>
+        <v>0.4267442</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -16937,7 +16871,7 @@
         <v>194</v>
       </c>
       <c r="C206">
-        <v>0.4267442</v>
+        <v>0.3188623</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -17014,7 +16948,7 @@
         <v>203</v>
       </c>
       <c r="C213">
-        <v>0.5660036000000001</v>
+        <v>0.5944584000000001</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -17025,7 +16959,7 @@
         <v>203</v>
       </c>
       <c r="C214">
-        <v>0.5944584000000001</v>
+        <v>0.5660036000000001</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -17047,7 +16981,7 @@
         <v>210</v>
       </c>
       <c r="C216">
-        <v>0.5355932</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -17058,7 +16992,7 @@
         <v>210</v>
       </c>
       <c r="C217">
-        <v>0.3636364</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -17069,7 +17003,7 @@
         <v>211</v>
       </c>
       <c r="C218">
-        <v>0.5507246</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -17080,7 +17014,7 @@
         <v>211</v>
       </c>
       <c r="C219">
-        <v>0.4456522</v>
+        <v>0.5507246</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -17091,7 +17025,7 @@
         <v>211</v>
       </c>
       <c r="C220">
-        <v>0.3379416</v>
+        <v>0.4456522</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -17179,7 +17113,7 @@
         <v>219</v>
       </c>
       <c r="C228">
-        <v>0.7030995</v>
+        <v>0.4263658</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -17190,7 +17124,7 @@
         <v>219</v>
       </c>
       <c r="C229">
-        <v>0.4263658</v>
+        <v>0.7030995</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -17212,7 +17146,7 @@
         <v>220</v>
       </c>
       <c r="C231">
-        <v>0.4227941</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -17223,7 +17157,7 @@
         <v>220</v>
       </c>
       <c r="C232">
-        <v>0.5022971000000001</v>
+        <v>0.4227941</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -17234,7 +17168,7 @@
         <v>221</v>
       </c>
       <c r="C233">
-        <v>0.4769688</v>
+        <v>0.3469055</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -17245,7 +17179,7 @@
         <v>221</v>
       </c>
       <c r="C234">
-        <v>0.3469055</v>
+        <v>0.4769688</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -17267,7 +17201,7 @@
         <v>228</v>
       </c>
       <c r="C236">
-        <v>0.6065891</v>
+        <v>0.430622</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -17278,7 +17212,7 @@
         <v>228</v>
       </c>
       <c r="C237">
-        <v>0.430622</v>
+        <v>0.6065891</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -17289,7 +17223,7 @@
         <v>229</v>
       </c>
       <c r="C238">
-        <v>0.6424051</v>
+        <v>0.3402923</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -17300,7 +17234,7 @@
         <v>229</v>
       </c>
       <c r="C239">
-        <v>0.3402923</v>
+        <v>0.6424051</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -17333,7 +17267,7 @@
         <v>232</v>
       </c>
       <c r="C242">
-        <v>0.4791667</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -17344,7 +17278,7 @@
         <v>232</v>
       </c>
       <c r="C243">
-        <v>0.3625</v>
+        <v>0.4791667</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -17377,7 +17311,7 @@
         <v>234</v>
       </c>
       <c r="C246">
-        <v>0.585736</v>
+        <v>0.5538695</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -17388,7 +17322,7 @@
         <v>234</v>
       </c>
       <c r="C247">
-        <v>0.5538695</v>
+        <v>0.585736</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -17443,7 +17377,7 @@
         <v>241</v>
       </c>
       <c r="C252">
-        <v>0.4030303</v>
+        <v>0.3363636</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -17454,7 +17388,7 @@
         <v>241</v>
       </c>
       <c r="C253">
-        <v>0.3363636</v>
+        <v>0.4030303</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -17619,7 +17553,7 @@
         <v>262</v>
       </c>
       <c r="C268">
-        <v>0.2491909</v>
+        <v>0.3502415</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -17630,7 +17564,7 @@
         <v>262</v>
       </c>
       <c r="C269">
-        <v>0.3502415</v>
+        <v>0.2491909</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -17674,7 +17608,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.2478992</v>
+        <v>0.6512605</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -17685,7 +17619,7 @@
         <v>271</v>
       </c>
       <c r="C274">
-        <v>0.6512605</v>
+        <v>0.2966752</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -17696,7 +17630,7 @@
         <v>271</v>
       </c>
       <c r="C275">
-        <v>0.2966752</v>
+        <v>0.2478992</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -17707,7 +17641,7 @@
         <v>272</v>
       </c>
       <c r="C276">
-        <v>0.3628692</v>
+        <v>0.4217252</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -17718,7 +17652,7 @@
         <v>272</v>
       </c>
       <c r="C277">
-        <v>0.4217252</v>
+        <v>0.3628692</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -17795,7 +17729,7 @@
         <v>281</v>
       </c>
       <c r="C284">
-        <v>0.2566735</v>
+        <v>0.2231076</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -17806,7 +17740,7 @@
         <v>281</v>
       </c>
       <c r="C285">
-        <v>0.2231076</v>
+        <v>0.2566735</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -17828,7 +17762,7 @@
         <v>284</v>
       </c>
       <c r="C287">
-        <v>0.2928571</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -17839,7 +17773,7 @@
         <v>284</v>
       </c>
       <c r="C288">
-        <v>0.2924791</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -17968,10 +17902,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C300">
-        <v>0.4466019</v>
+        <v>0.1147059</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -17979,10 +17913,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C301">
-        <v>0.2291169</v>
+        <v>0.2823529</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -17990,10 +17924,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C302">
-        <v>0.1147059</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -18001,10 +17935,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C303">
-        <v>0.2823529</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -18012,10 +17946,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C304">
-        <v>0.2011494</v>
+        <v>0.1168478</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -18023,10 +17957,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C305">
-        <v>0.1826625</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -18034,10 +17968,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C306">
-        <v>0.1168478</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -18045,10 +17979,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C307">
-        <v>0.1657609</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -18056,10 +17990,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C308">
-        <v>0.2068966</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -18067,10 +18001,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C309">
-        <v>0.2135417</v>
+        <v>0.1375661</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -18078,10 +18012,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C310">
-        <v>0.1375661</v>
+        <v>0.2436548</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -18089,10 +18023,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C311">
-        <v>0.2086168</v>
+        <v>0.1015228</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -18103,7 +18037,7 @@
         <v>317</v>
       </c>
       <c r="C312">
-        <v>0.2436548</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -18111,10 +18045,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C313">
-        <v>0.1015228</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -18122,10 +18056,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C314">
-        <v>0.1458333</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -18133,10 +18067,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C315">
-        <v>0.1153846</v>
+        <v>0.1434109</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -18144,31 +18078,9 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C316">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>348</v>
-      </c>
-      <c r="C317">
-        <v>0.1434109</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>348</v>
-      </c>
-      <c r="C318">
         <v>0.1046512</v>
       </c>
     </row>
